--- a/streamlit/LLMsTeamOutput/codebook.xlsx
+++ b/streamlit/LLMsTeamOutput/codebook.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,10 +547,118 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>For the software or the end product, I believe the key attributes is conformity to business needs and free of defects.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conformity to Business Needs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The phrase [conformity to business needs] highlights the importance of aligning software attributes with organizational objectives, emphasizing user-centered design and legal compliance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Defect-Free Quality</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The term [free of defects] underscores the necessity for high-quality standards in software development, reflecting a commitment to reliability and user satisfaction, as well as minimizing legal liabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Defect-Free Product</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>All roles unanimously support retaining the code 'Defect-Free Product', emphasizing its importance for quality assurance and the subjective nature of defect definitions in software development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Defect-Free Assurance</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>All roles unanimously support retaining the code 'Defect-Free Assurance', emphasizing its critical importance for quality assurance, legal compliance, and user trust in software development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Okay, so firstly, the sprint planning meeting right. So, during the sprint planning meeting, each and every user story. So, they user stories are already there in the black block. In our set up, what I always advise the team, is that they should go through the user stories applied to the sprint planning meeting so that they know for sure what are the questions they have for the product owner. So that helps. So now, a set of the team has gone through the user stories. They know what is there in the background. They join the meeting. So how it helps is, whatever question that he has, the product owner answers it during the sprint planning meeting itself. So, the sprint planning meeting is the start of the sprint. So, if we have any doubt or query, that is answered at the very beginning rather than bringing up questions towards the end. That gives the team of the entire duration of the sprint, to work on something, rather than if it was the question was asked later on. This collaboration with the PO helps better understanding of the user stories. Then the team knows what to develop and test. What I have experiences, it a good collaboration with a knowledgeable PO reduces defects. We receive feedback on ongoing bases and we rectify quickly.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collaboration with PO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The text underscores the significance of collaboration with the product owner, which enhances understanding and reduces defects during development. This is supported by the phrase, [this collaboration with the PO helps better understanding of the user stories].</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Early Question/Issue Resolution</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Addressing questions at the beginning of the sprint planning meeting allows the team to focus on development without delays, improving overall efficiency. This is reflected in the text, [if we have any doubt or query, that is answered at the very beginning rather than bringing up questions towards the end].</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Continuous Feedback Loop</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The mention of receiving feedback on an ongoing basis indicates a commitment to iterative improvement and quick rectification of issues, as seen in the statement, [we receive feedback on ongoing bases and we rectify quickly].</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>User Story Clarity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>All roles unanimously support retaining the code 'User Story Clarity', emphasizing its importance for effective collaboration and understanding in agile methodologies.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
